--- a/data/georgia_census/imereti/wyaltubo/education_graduates.xlsx
+++ b/data/georgia_census/imereti/wyaltubo/education_graduates.xlsx
@@ -1819,13 +1819,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAF1EB88-114A-40EF-9F85-0C01CD66CF7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F16216C3-7AF6-4C50-B4E0-163BA7146898}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9F0502C-8997-43E6-B5E6-CAFAF912ADCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA0C9038-D6E0-4B8B-B977-6B7D42427CFB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7515B465-0830-41F1-80A0-80DE5423F403}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15DDF989-C941-4309-82F8-E154041A7853}"/>
 </file>